--- a/Output/Movie_Review_Sentimental_Analysis_Report.xlsx
+++ b/Output/Movie_Review_Sentimental_Analysis_Report.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>Reviews</t>
+  </si>
+  <si>
+    <t>POSITIVE SCORE(%)</t>
+  </si>
+  <si>
+    <t>NEGATIVE SCORE(%)</t>
+  </si>
+  <si>
+    <t>INTENSITY SCORE</t>
   </si>
   <si>
     <t>SENTIMENT</t>
@@ -554,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,855 +585,1314 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>9.375</v>
+      </c>
+      <c r="D2">
+        <v>-3.125</v>
+      </c>
+      <c r="E2">
+        <v>0.03124999902343753</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="D3">
+        <v>-0</v>
+      </c>
+      <c r="E3">
+        <v>0.003289473597645432</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="D4">
+        <v>-0</v>
+      </c>
+      <c r="E4">
+        <v>0.0401785699936225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="D5">
+        <v>-9.67741935483871</v>
+      </c>
+      <c r="E5">
+        <v>-0.08064515868886585</v>
+      </c>
+      <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>6.25</v>
+      </c>
+      <c r="D6">
+        <v>-6.25</v>
+      </c>
+      <c r="E6">
+        <v>-0.04687499707031268</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>-12</v>
+      </c>
+      <c r="E7">
+        <v>0.02499999900000004</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="D8">
+        <v>-7.407407407407407</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5.128205128205128</v>
+      </c>
+      <c r="D9">
+        <v>-7.692307692307693</v>
+      </c>
+      <c r="E9">
+        <v>0.01282051249178173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="D10">
+        <v>-2.857142857142857</v>
+      </c>
+      <c r="E10">
+        <v>0.04642857010204086</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D11">
+        <v>-0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-5.263157894736842</v>
+      </c>
+      <c r="E12">
+        <v>0.003289473597645432</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>12.5</v>
+      </c>
+      <c r="D13">
+        <v>-0</v>
+      </c>
+      <c r="E13">
+        <v>0.09374999414062536</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="D14">
+        <v>-5.555555555555555</v>
+      </c>
+      <c r="E14">
+        <v>0.01736111062885804</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>-4</v>
+      </c>
+      <c r="E15">
+        <v>-0.02051999917920003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D16">
+        <v>-0</v>
+      </c>
+      <c r="E16">
+        <v>0.04166666435185198</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>6.25</v>
+      </c>
+      <c r="D17">
+        <v>-4.166666666666666</v>
+      </c>
+      <c r="E17">
+        <v>-0.01302083306206598</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>11.32075471698113</v>
+      </c>
+      <c r="D18">
+        <v>-1.886792452830189</v>
+      </c>
+      <c r="E18">
+        <v>0.02830188625845498</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="D19">
+        <v>-0</v>
+      </c>
+      <c r="E19">
+        <v>0.01704545377066119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="D20">
+        <v>-0</v>
+      </c>
+      <c r="E20">
+        <v>0.07352940743944662</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="D21">
+        <v>-10.3448275862069</v>
+      </c>
+      <c r="E21">
+        <v>0.008620689357907264</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>4.878048780487805</v>
+      </c>
+      <c r="D22">
+        <v>-2.439024390243902</v>
+      </c>
+      <c r="E22">
+        <v>0.01829268248066628</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="D23">
+        <v>-3.448275862068965</v>
+      </c>
+      <c r="E23">
+        <v>0.008620689357907264</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="D24">
+        <v>-4.166666666666666</v>
+      </c>
+      <c r="E24">
+        <v>0.05729166427951399</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>11.42857142857143</v>
+      </c>
+      <c r="D25">
+        <v>-2.857142857142857</v>
+      </c>
+      <c r="E25">
+        <v>0.06428571244897965</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="D26">
+        <v>-0</v>
+      </c>
+      <c r="E26">
+        <v>0.004629629458161872</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="D27">
+        <v>-0</v>
+      </c>
+      <c r="E27">
+        <v>-0.01136363584710746</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-0</v>
+      </c>
+      <c r="E28">
+        <v>-0.08333332870370395</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="D29">
+        <v>-0</v>
+      </c>
+      <c r="E29">
+        <v>0.00568181792355373</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>-0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-0</v>
+      </c>
+      <c r="E31">
+        <v>-0.04374999781250011</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D32">
+        <v>-0</v>
+      </c>
+      <c r="E32">
+        <v>0.02083333263888891</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>-4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>-4.761904761904762</v>
+      </c>
+      <c r="E34">
+        <v>-0.0267857136479592</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
       </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>4.25531914893617</v>
+      </c>
+      <c r="D35">
+        <v>-0</v>
+      </c>
+      <c r="E35">
+        <v>0.05585106264146675</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-16.12903225806452</v>
+      </c>
+      <c r="E36">
+        <v>-0.008064515868886584</v>
+      </c>
+      <c r="F36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>2.5</v>
+      </c>
+      <c r="D37">
+        <v>-12.5</v>
+      </c>
+      <c r="E37">
+        <v>-0.02812499929687502</v>
+      </c>
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="D38">
+        <v>-0</v>
+      </c>
+      <c r="E38">
+        <v>0.008928571109693889</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="D39">
+        <v>-0</v>
+      </c>
+      <c r="E39">
+        <v>0.01041666579861118</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>9.25925925925926</v>
+      </c>
+      <c r="D40">
+        <v>-5.555555555555555</v>
+      </c>
+      <c r="E40">
+        <v>-0.02546296249142662</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>2.702702702702703</v>
+      </c>
+      <c r="D41">
+        <v>-2.702702702702703</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="D42">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="E42">
+        <v>0.05113636131198358</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="D43">
+        <v>-0</v>
+      </c>
+      <c r="E43">
+        <v>-0.0568181792355373</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="D44">
+        <v>-0</v>
+      </c>
+      <c r="E44">
+        <v>0.003289473597645432</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="D45">
+        <v>-2.941176470588235</v>
+      </c>
+      <c r="E45">
+        <v>0.03308823432093429</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="D46">
+        <v>-10.3448275862069</v>
+      </c>
+      <c r="E46">
+        <v>0.01724137871581453</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>-0</v>
+      </c>
+      <c r="E47">
+        <v>0.03826530534152438</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>-0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="C49">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="D49">
+        <v>-5.88235294117647</v>
+      </c>
+      <c r="E49">
+        <v>0.04411764446366797</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-0</v>
+      </c>
+      <c r="E50">
+        <v>-0.01388888811728399</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" t="s">
         <v>57</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>-20</v>
+      </c>
+      <c r="E51">
+        <v>0.1124999887500011</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
